--- a/Model_Simulation of Piping.xlsx
+++ b/Model_Simulation of Piping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1MS21CH021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1MS21CH021\Simulation of piping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Pipe</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Property method</t>
   </si>
   <si>
-    <t>Henry's component list ID</t>
-  </si>
-  <si>
-    <t>Electrolyte chemistry ID</t>
-  </si>
-  <si>
     <t>Use true species approach for electrolytes</t>
   </si>
   <si>
@@ -62,42 +56,12 @@
     <t>Pipe rise [ft]</t>
   </si>
   <si>
-    <t>Pipe angle [deg]</t>
-  </si>
-  <si>
     <t>Roughness [ft]</t>
   </si>
   <si>
     <t>Erosional velocity coefficient</t>
   </si>
   <si>
-    <t>Outlet temperature [F]</t>
-  </si>
-  <si>
-    <t>Heat transfer coefficient [Btu/hr-sqft-R]</t>
-  </si>
-  <si>
-    <t>Heat flux [Btu/hr-ft]</t>
-  </si>
-  <si>
-    <t>Enlargement diameter [ft]</t>
-  </si>
-  <si>
-    <t>Enlargement angle [deg]</t>
-  </si>
-  <si>
-    <t>Contraction diameter [ft]</t>
-  </si>
-  <si>
-    <t>Contraction angle [deg]</t>
-  </si>
-  <si>
-    <t>Orifice diameter [ft]</t>
-  </si>
-  <si>
-    <t>Orifice thickness [ft]</t>
-  </si>
-  <si>
     <t>Conveying method</t>
   </si>
   <si>
@@ -143,28 +107,13 @@
     <t>Solid/fluid velocity ratio</t>
   </si>
   <si>
-    <t>Stress transmission coefficient</t>
-  </si>
-  <si>
-    <t>Particle-wall friction</t>
-  </si>
-  <si>
-    <t>Characteristic viscosity parameter [ft/sec]</t>
-  </si>
-  <si>
     <t>Equivalent length of elbows [ft]</t>
   </si>
   <si>
     <t>Pressure drop coefficient per elbow</t>
   </si>
   <si>
-    <t>Voidage</t>
-  </si>
-  <si>
     <t>Sphericity</t>
-  </si>
-  <si>
-    <t>Particle diameter [ft]</t>
   </si>
   <si>
     <t>Total pressure drop of fluid flow [psi]</t>
@@ -559,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G65"/>
+  <dimension ref="C3:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -602,51 +551,67 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -654,16 +619,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -671,33 +636,33 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
+      <c r="D11" s="2">
+        <v>8.7416666599999998E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.25566666669999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.9750000000000001E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.2416666667</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -705,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -722,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>8.7416666599999998E-2</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="E13" s="2">
-        <v>0.25566666669999999</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F13" s="2">
-        <v>7.9750000000000001E-2</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G13" s="2">
-        <v>0.2416666667</v>
+        <v>1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
@@ -739,694 +704,525 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.4999999999999999E-4</v>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2">
-        <v>100</v>
-      </c>
-      <c r="F17" s="2">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2">
-        <v>100</v>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="D22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="D24" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="D25" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="D26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>60</v>
+      <c r="D27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>61</v>
+      <c r="D28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>62</v>
+      <c r="D29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>62</v>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>63</v>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>58</v>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>62</v>
+      <c r="D33" s="1">
+        <v>14.6100282</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6.3458235599999996E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>23.521981100000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.3858857199999998E-2</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.02</v>
+      <c r="D34" s="1">
+        <v>14.6100282</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.3458235599999996E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>23.521981100000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8.3858857199999998E-2</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.01</v>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.55000000000000004</v>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1.4999999999999999E-2</v>
+      <c r="D37" s="1">
+        <v>-850.00710200000003</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-3.6918849900000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-1368.52377</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-4.8787563399999998</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.4</v>
+      <c r="D38" s="1">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.2</v>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.08</v>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.8</v>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="1">
-        <v>14.6100282</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6.3458235599999996E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>23.521981100000001</v>
-      </c>
-      <c r="G50" s="1">
-        <v>8.3858857199999998E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="1">
-        <v>14.6100282</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6.3458235599999996E-2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>23.521981100000001</v>
-      </c>
-      <c r="G51" s="1">
-        <v>8.3858857199999998E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-850.00710200000003</v>
-      </c>
-      <c r="E54" s="1">
-        <v>-3.6918849900000001</v>
-      </c>
-      <c r="F54" s="1">
-        <v>-1368.52377</v>
-      </c>
-      <c r="G54" s="1">
-        <v>-4.8787563399999998</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1">
-        <v>30</v>
-      </c>
-      <c r="E55" s="1">
-        <v>30</v>
-      </c>
-      <c r="F55" s="1">
-        <v>30</v>
-      </c>
-      <c r="G55" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
